--- a/plots/tables/pub_count_ml_pipeline_code_data_sharing_eval.xlsx
+++ b/plots/tables/pub_count_ml_pipeline_code_data_sharing_eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenam\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAF052-C868-4AF3-B97C-8752A68D8C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C997CBE-7CF1-4E12-81FD-C7C288A863C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,27 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>2008-2019</t>
   </si>
@@ -59,6 +69,9 @@
   <si>
     <t>ML pipeline 
 description</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -66,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -215,55 +228,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -545,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="235" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,68 +583,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>79</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>1.8695014662756499</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>0.721518987341772</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>5.0632911392405E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>0.227848101265822</v>
       </c>
       <c r="H4" s="3">
@@ -637,22 +658,22 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>2020</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="12">
         <v>108</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>2.1481481481481399</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>0.68518518518518501</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>3.7037037037037E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>0.27777777777777701</v>
       </c>
       <c r="H5" s="3">
@@ -666,22 +687,22 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>2021</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="12">
         <v>200</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>2.1549999999999998</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>0.80500000000000005</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>0.04</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>0.155</v>
       </c>
       <c r="H6" s="3">
@@ -694,33 +715,62 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
         <v>2022</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="23">
         <v>63</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="24">
         <v>2.3015873015873001</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="25">
         <v>0.76190476190476097</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="26">
         <v>3.1746031746031703E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="27">
         <v>0.206349206349206</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="26">
         <v>0.57142857142857095</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="26">
         <v>0.12698412698412601</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="26">
         <v>0.30158730158730102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>450</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.1511111111111099</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.75555600000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.20444399999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.54444440000000005</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.186667</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.26888899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -731,8 +781,8 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:J7">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E4:J8">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -759,7 +809,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4:J7</xm:sqref>
+          <xm:sqref>E4:J8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/plots/tables/pub_count_ml_pipeline_code_data_sharing_eval.xlsx
+++ b/plots/tables/pub_count_ml_pipeline_code_data_sharing_eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenam\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C997CBE-7CF1-4E12-81FD-C7C288A863C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22457083-256E-490F-892C-37FAB93CFA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -250,33 +250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,6 +258,33 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -292,6 +292,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FAADC"/>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -569,46 +575,46 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="235" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
@@ -628,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -657,7 +663,7 @@
         <v>0.265822784810126</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2020</v>
       </c>
@@ -686,7 +692,7 @@
         <v>0.26851851851851799</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2021</v>
       </c>
@@ -715,36 +721,36 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22">
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="13">
         <v>2022</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="14">
         <v>63</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="15">
         <v>2.3015873015873001</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="16">
         <v>0.76190476190476097</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>3.1746031746031703E-2</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="18">
         <v>0.206349206349206</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="17">
         <v>0.57142857142857095</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="17">
         <v>0.12698412698412601</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="17">
         <v>0.30158730158730102</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -782,7 +788,7 @@
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:J8">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -791,6 +797,42 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8DC9A1C1-2BD9-4608-B907-DC47D3C1294E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF4472C4"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4541BDAC-BA49-4DF8-9803-7EC7E3CC8A86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF8FAADC"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{376C9DEB-B9F1-46E1-AF85-50709923D0E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF8FAADC"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CADF505E-60CD-4EE3-9073-BBBE2E2D9ED1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -809,6 +851,30 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4541BDAC-BA49-4DF8-9803-7EC7E3CC8A86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{376C9DEB-B9F1-46E1-AF85-50709923D0E8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{CADF505E-60CD-4EE3-9073-BBBE2E2D9ED1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>E4:J8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
